--- a/完成体.xlsx
+++ b/完成体.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeuchi\Desktop\3年PM演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\和暉\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -2608,13 +2608,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2623,10 +2617,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2643,12 +2649,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2680,10 +2680,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2723,7 +2723,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2784,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6D605A-8B50-488F-9869-577DF8F9A322}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A6D605A-8B50-488F-9869-577DF8F9A322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2828,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EA967F-2BA5-41EC-963E-37318FBC5B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03EA967F-2BA5-41EC-963E-37318FBC5B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7202,17 +7202,22 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>143994</xdr:colOff>
+      <xdr:colOff>145676</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>39780</xdr:rowOff>
+      <xdr:rowOff>34179</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7229476" cy="4162426"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>773206</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7231,8 +7236,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="315444" y="1582830"/>
-          <a:ext cx="7229476" cy="4162426"/>
+          <a:off x="358588" y="1569385"/>
+          <a:ext cx="7227794" cy="4168027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7240,7 +7245,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10611,7 +10616,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="85" zoomScaleSheetLayoutView="82" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="85" zoomScaleSheetLayoutView="82" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -11380,7 +11385,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13028,11 +13033,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="72">
         <v>3</v>
       </c>
@@ -13041,24 +13046,24 @@
       <c r="H6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
       <c r="L6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
       <c r="E7" s="72" t="s">
         <v>38</v>
       </c>
@@ -13067,15 +13072,15 @@
       <c r="H7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -13678,17 +13683,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13873,10 +13878,10 @@
       <c r="D8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="110"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="35" t="s">
         <v>49</v>
       </c>
@@ -13886,11 +13891,11 @@
       <c r="I8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="110" t="s">
+      <c r="J8" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -14528,25 +14533,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -14563,12 +14555,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15539,20 +15544,20 @@
       <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="101" t="s">
+      <c r="F7" s="100"/>
+      <c r="G7" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="101" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="38" t="s">
         <v>19</v>
       </c>
@@ -15572,20 +15577,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="98" t="s">
+      <c r="F8" s="98"/>
+      <c r="G8" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="98" t="s">
+      <c r="H8" s="98"/>
+      <c r="I8" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="98"/>
       <c r="M8" s="23" t="s">
         <v>21</v>
       </c>
@@ -15605,20 +15610,20 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="98" t="s">
+      <c r="F9" s="98"/>
+      <c r="G9" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="98" t="s">
+      <c r="H9" s="98"/>
+      <c r="I9" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="23" t="s">
         <v>118</v>
       </c>
@@ -15638,20 +15643,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="98" t="s">
+      <c r="F10" s="98"/>
+      <c r="G10" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="98" t="s">
+      <c r="H10" s="98"/>
+      <c r="I10" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -15671,18 +15676,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="100"/>
-      <c r="G11" s="98" t="s">
+      <c r="F11" s="98"/>
+      <c r="G11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="23" t="s">
         <v>117</v>
       </c>
@@ -15702,18 +15707,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="98" t="s">
+      <c r="F12" s="98"/>
+      <c r="G12" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="100"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
@@ -15727,18 +15732,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="98" t="s">
+      <c r="F13" s="98"/>
+      <c r="G13" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -15758,20 +15763,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="98" t="s">
+      <c r="F14" s="98"/>
+      <c r="G14" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="98" t="s">
+      <c r="H14" s="98"/>
+      <c r="I14" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="23" t="s">
         <v>117</v>
       </c>
@@ -15791,20 +15796,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="98" t="s">
+      <c r="F15" s="98"/>
+      <c r="G15" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="98" t="s">
+      <c r="H15" s="98"/>
+      <c r="I15" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="98"/>
       <c r="M15" s="23" t="s">
         <v>21</v>
       </c>
@@ -15824,18 +15829,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="98" t="s">
+      <c r="F16" s="98"/>
+      <c r="G16" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="98"/>
       <c r="M16" s="23" t="s">
         <v>21</v>
       </c>
@@ -15855,14 +15860,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="98"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -15876,14 +15881,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -15897,14 +15902,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="98"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -15918,14 +15923,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -15939,14 +15944,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="100"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -15957,14 +15962,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -16309,6 +16314,41 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -16325,41 +16365,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -16530,21 +16535,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="101" t="s">
+      <c r="D7" s="104"/>
+      <c r="E7" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="110" t="s">
+      <c r="F7" s="100"/>
+      <c r="G7" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>46</v>
@@ -16556,21 +16561,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105" t="s">
+      <c r="D8" s="106"/>
+      <c r="E8" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107" t="s">
+      <c r="F8" s="108"/>
+      <c r="G8" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16580,21 +16585,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105" t="s">
+      <c r="D9" s="106"/>
+      <c r="E9" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="105" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="106"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16604,21 +16609,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105" t="s">
+      <c r="D10" s="106"/>
+      <c r="E10" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107" t="s">
+      <c r="F10" s="108"/>
+      <c r="G10" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -16628,21 +16633,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="D11" s="106"/>
+      <c r="E11" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107" t="s">
+      <c r="F11" s="108"/>
+      <c r="G11" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -16652,21 +16657,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105" t="s">
+      <c r="D12" s="106"/>
+      <c r="E12" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107" t="s">
+      <c r="F12" s="108"/>
+      <c r="G12" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -16676,21 +16681,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105" t="s">
+      <c r="D13" s="106"/>
+      <c r="E13" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107" t="s">
+      <c r="F13" s="108"/>
+      <c r="G13" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16700,21 +16705,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105" t="s">
+      <c r="D14" s="106"/>
+      <c r="E14" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107" t="s">
+      <c r="F14" s="108"/>
+      <c r="G14" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -16724,15 +16729,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>51</v>
@@ -16744,15 +16749,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -17199,30 +17204,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:K16"/>
@@ -17232,6 +17213,30 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:K15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19556,7 +19561,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -20324,7 +20329,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/完成体.xlsx
+++ b/完成体.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\和暉\Documents\GitHub\PM-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="画面１ " sheetId="18" r:id="rId4"/>
     <sheet name="1" sheetId="19" r:id="rId5"/>
     <sheet name="2" sheetId="20" r:id="rId6"/>
-    <sheet name="３" sheetId="24" r:id="rId7"/>
-    <sheet name="４" sheetId="21" r:id="rId8"/>
+    <sheet name="４" sheetId="21" r:id="rId7"/>
+    <sheet name="３" sheetId="24" r:id="rId8"/>
     <sheet name="５" sheetId="22" r:id="rId9"/>
     <sheet name="６" sheetId="10" r:id="rId10"/>
     <sheet name="７" sheetId="16" r:id="rId11"/>
@@ -31,8 +31,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'1'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'３'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'４'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'３'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'４'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'５'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'６'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'７'!$A$1:$P$39</definedName>
@@ -43,13 +43,13 @@
     <definedName name="_xlnm.Print_Area" localSheetId="11">表紙_内部!$A$1:$Q$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'1'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'2'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'３'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'４'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'３'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'４'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'５'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'６'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'７'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1740,7 +1740,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2608,7 +2608,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2617,22 +2623,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2649,6 +2643,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2680,10 +2680,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2723,7 +2723,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2784,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A6D605A-8B50-488F-9869-577DF8F9A322}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6D605A-8B50-488F-9869-577DF8F9A322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2828,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03EA967F-2BA5-41EC-963E-37318FBC5B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EA967F-2BA5-41EC-963E-37318FBC5B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6342,6 +6342,164 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2229410" y="1301003"/>
+          <a:ext cx="512670" cy="3864909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　実装にあたっての注意事項　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年度・演習名のテキストにはりんくはつけない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48190</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7239001" cy="4154016"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="317125" y="1591240"/>
+          <a:ext cx="7239001" cy="4154016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>6535</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -6914,164 +7072,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2229410" y="1301003"/>
-          <a:ext cx="512670" cy="3864909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　実装にあたっての注意事項　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>48190</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7239001" cy="4154016"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="317125" y="1591240"/>
-          <a:ext cx="7239001" cy="4154016"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10616,7 +10616,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="85" zoomScaleSheetLayoutView="82" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="85" zoomScaleSheetLayoutView="82" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -13033,11 +13033,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="72">
         <v>3</v>
       </c>
@@ -13046,24 +13046,24 @@
       <c r="H6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
       <c r="L6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="72" t="s">
         <v>38</v>
       </c>
@@ -13072,15 +13072,15 @@
       <c r="H7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
       <c r="L7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -13683,17 +13683,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13878,10 +13878,10 @@
       <c r="D8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="105"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="35" t="s">
         <v>49</v>
       </c>
@@ -13891,11 +13891,11 @@
       <c r="I8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -14533,12 +14533,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -14555,25 +14568,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15544,20 +15544,20 @@
       <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="99" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="99" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="100"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="38" t="s">
         <v>19</v>
       </c>
@@ -15577,20 +15577,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="97" t="s">
+      <c r="F8" s="100"/>
+      <c r="G8" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="97" t="s">
+      <c r="H8" s="100"/>
+      <c r="I8" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="98"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="23" t="s">
         <v>21</v>
       </c>
@@ -15610,20 +15610,20 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="97" t="s">
+      <c r="F9" s="100"/>
+      <c r="G9" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="97" t="s">
+      <c r="H9" s="100"/>
+      <c r="I9" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="98"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="23" t="s">
         <v>118</v>
       </c>
@@ -15643,20 +15643,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="97" t="s">
+      <c r="F10" s="100"/>
+      <c r="G10" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="98"/>
-      <c r="I10" s="97" t="s">
+      <c r="H10" s="100"/>
+      <c r="I10" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="98"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -15676,18 +15676,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="97" t="s">
+      <c r="F11" s="100"/>
+      <c r="G11" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="98"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
       <c r="M11" s="23" t="s">
         <v>117</v>
       </c>
@@ -15707,18 +15707,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="97" t="s">
+      <c r="F12" s="100"/>
+      <c r="G12" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="98"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="100"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
@@ -15732,18 +15732,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="97" t="s">
+      <c r="F13" s="100"/>
+      <c r="G13" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="98"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -15763,20 +15763,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="97" t="s">
+      <c r="F14" s="100"/>
+      <c r="G14" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="97" t="s">
+      <c r="H14" s="100"/>
+      <c r="I14" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="98"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
       <c r="M14" s="23" t="s">
         <v>117</v>
       </c>
@@ -15796,20 +15796,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="97" t="s">
+      <c r="F15" s="100"/>
+      <c r="G15" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="97" t="s">
+      <c r="H15" s="100"/>
+      <c r="I15" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="98"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
       <c r="M15" s="23" t="s">
         <v>21</v>
       </c>
@@ -15829,18 +15829,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="97" t="s">
+      <c r="F16" s="100"/>
+      <c r="G16" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="98"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
       <c r="M16" s="23" t="s">
         <v>21</v>
       </c>
@@ -15860,14 +15860,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -15881,14 +15881,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -15902,14 +15902,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -15923,14 +15923,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -15944,14 +15944,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="100"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -15962,14 +15962,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -16314,41 +16314,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -16365,6 +16330,41 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -16535,21 +16535,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="99" t="s">
+      <c r="D7" s="109"/>
+      <c r="E7" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="105" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>46</v>
@@ -16561,21 +16561,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107" t="s">
+      <c r="D8" s="104"/>
+      <c r="E8" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109" t="s">
+      <c r="F8" s="106"/>
+      <c r="G8" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16585,21 +16585,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107" t="s">
+      <c r="D9" s="104"/>
+      <c r="E9" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="107" t="s">
+      <c r="F9" s="106"/>
+      <c r="G9" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="106"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16609,21 +16609,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107" t="s">
+      <c r="D10" s="104"/>
+      <c r="E10" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="109" t="s">
+      <c r="F10" s="106"/>
+      <c r="G10" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -16633,21 +16633,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="107" t="s">
+      <c r="D11" s="104"/>
+      <c r="E11" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109" t="s">
+      <c r="F11" s="106"/>
+      <c r="G11" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -16657,21 +16657,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107" t="s">
+      <c r="D12" s="104"/>
+      <c r="E12" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109" t="s">
+      <c r="F12" s="106"/>
+      <c r="G12" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -16681,21 +16681,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="107" t="s">
+      <c r="D13" s="104"/>
+      <c r="E13" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109" t="s">
+      <c r="F13" s="106"/>
+      <c r="G13" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16705,21 +16705,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="107" t="s">
+      <c r="D14" s="104"/>
+      <c r="E14" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109" t="s">
+      <c r="F14" s="106"/>
+      <c r="G14" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -16729,15 +16729,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>51</v>
@@ -16749,15 +16749,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -17204,6 +17204,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:K16"/>
@@ -17213,30 +17237,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:K15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18025,7 +18025,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18787,6 +18787,773 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -18931,773 +19698,6 @@
       </c>
       <c r="E7" s="26" t="s">
         <v>157</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="N1" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="C4" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
-      <c r="D7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>148</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>

--- a/完成体.xlsx
+++ b/完成体.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
-    <sheet name="概略 " sheetId="17" r:id="rId2"/>
-    <sheet name="機能" sheetId="4" r:id="rId3"/>
+    <sheet name="機能" sheetId="4" r:id="rId2"/>
+    <sheet name="概略 " sheetId="17" r:id="rId3"/>
     <sheet name="画面１ " sheetId="18" r:id="rId4"/>
     <sheet name="1" sheetId="19" r:id="rId5"/>
     <sheet name="2" sheetId="20" r:id="rId6"/>
-    <sheet name="４" sheetId="21" r:id="rId7"/>
-    <sheet name="３" sheetId="24" r:id="rId8"/>
+    <sheet name="３" sheetId="24" r:id="rId7"/>
+    <sheet name="４" sheetId="21" r:id="rId8"/>
     <sheet name="５" sheetId="22" r:id="rId9"/>
     <sheet name="６" sheetId="10" r:id="rId10"/>
     <sheet name="７" sheetId="16" r:id="rId11"/>
@@ -28,23 +28,23 @@
     <sheet name="データ" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">機能!$D$7:$O$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'1'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'３'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'４'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'３'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'４'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'５'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'６'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'７'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'概略 '!$A$1:$P$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">機能!$A$1:$P$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'概略 '!$A$1:$P$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">機能!$A$1:$P$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">処理!$A$1:$P$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_外部!$A$1:$Q$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">表紙_内部!$A$1:$Q$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'1'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'2'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'３'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'４'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'３'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'４'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'５'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'６'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'７'!$1:$2</definedName>
@@ -2608,13 +2608,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2623,10 +2617,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2643,12 +2649,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2680,10 +2680,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6342,164 +6342,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2229410" y="1301003"/>
-          <a:ext cx="512670" cy="3864909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　実装にあたっての注意事項　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年度・演習名のテキストにはりんくはつけない。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>48190</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7239001" cy="4154016"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="317125" y="1591240"/>
-          <a:ext cx="7239001" cy="4154016"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>6535</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -6518,8 +6360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="625660" y="1316693"/>
-          <a:ext cx="7002832" cy="4636432"/>
+          <a:off x="645270" y="1277472"/>
+          <a:ext cx="7056060" cy="4459940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6564,14 +6406,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>34553</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>151747</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>711575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93855</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6580,8 +6422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1653803" y="1370947"/>
-          <a:ext cx="4582272" cy="434040"/>
+          <a:off x="1670612" y="2213635"/>
+          <a:ext cx="4599081" cy="423955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6786,14 +6628,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>627063</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>124086</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6802,8 +6644,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2738438" y="2460625"/>
-          <a:ext cx="2603500" cy="1571625"/>
+          <a:off x="2777659" y="3305738"/>
+          <a:ext cx="2623110" cy="1042966"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6855,14 +6697,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>658811</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6147</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6871,8 +6713,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2738437" y="4206875"/>
-          <a:ext cx="2635249" cy="1571625"/>
+          <a:off x="2777658" y="4515971"/>
+          <a:ext cx="2654859" cy="1059500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7002,14 +6844,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117668</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7018,8 +6860,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2452687" y="1936751"/>
-          <a:ext cx="3111500" cy="444499"/>
+          <a:off x="2491908" y="2734242"/>
+          <a:ext cx="3137647" cy="431426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7072,6 +6914,512 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102358</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="1277472"/>
+          <a:ext cx="7048500" cy="360092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>学科専用闇キャンパスポータルへようこそ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>135764</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>105756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399533</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2556235" y="1640962"/>
+          <a:ext cx="1832592" cy="236726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>時間割</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>135764</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649942" y="1636667"/>
+          <a:ext cx="1906293" cy="236725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トップ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399533</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3597</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4388827" y="1638254"/>
+          <a:ext cx="1751997" cy="236725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>過去問</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>575380</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99129</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5184</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6133498" y="1639841"/>
+          <a:ext cx="1563219" cy="236725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>成果物</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2229410" y="1301003"/>
+          <a:ext cx="512670" cy="3864909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　実装にあたっての注意事項　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年度・演習名のテキストにはりんくはつけない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48190</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7239001" cy="4154016"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="317125" y="1591240"/>
+          <a:ext cx="7239001" cy="4154016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7271,8 +7619,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="625660" y="1316692"/>
-          <a:ext cx="7002832" cy="4636433"/>
+          <a:off x="633791" y="1309722"/>
+          <a:ext cx="7008640" cy="4625979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7317,14 +7665,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>34553</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>151747</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>711575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>117902</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7333,8 +7681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1637928" y="1389997"/>
-          <a:ext cx="4566397" cy="443565"/>
+          <a:off x="1649157" y="1952205"/>
+          <a:ext cx="4568333" cy="442404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7376,7 +7724,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>授業時間割</a:t>
+            <a:t>時間割メニュー</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:ln>
@@ -7596,170 +7944,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>388937</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>103187</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1214437" y="1833562"/>
-          <a:ext cx="492125" cy="277813"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1184275" y="3438525"/>
-          <a:ext cx="498475" cy="307975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>103689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>785812</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>163513</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>890</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7768,8 +7962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="3600450"/>
-          <a:ext cx="1725612" cy="246063"/>
+          <a:off x="4565340" y="3948537"/>
+          <a:ext cx="1726387" cy="245676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7851,14 +8045,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>331786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>141288</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>501648</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49716</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7867,8 +8061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1935161" y="3649663"/>
-          <a:ext cx="1725612" cy="246063"/>
+          <a:off x="1946390" y="3997750"/>
+          <a:ext cx="1726386" cy="245289"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7972,127 +8166,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>341313</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1944688" y="2008186"/>
-          <a:ext cx="1725612" cy="246063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>１セメスター</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>↓</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>620713</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>65087</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>111552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8752</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8101,8 +8184,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4557713" y="2001837"/>
-          <a:ext cx="1725612" cy="246063"/>
+          <a:off x="4570103" y="2562497"/>
+          <a:ext cx="1726387" cy="245676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8207,108 +8290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2103438" y="2373313"/>
-          <a:ext cx="1317625" cy="928688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>時間割の</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>縮小した画像</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>17464</xdr:rowOff>
+      <xdr:rowOff>156851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>73027</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38176</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8317,8 +8307,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2105025" y="4224339"/>
-          <a:ext cx="1317625" cy="928688"/>
+          <a:off x="2116254" y="4350174"/>
+          <a:ext cx="1318399" cy="926752"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8395,13 +8385,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>58738</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>158438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>598488</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>74614</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8410,8 +8400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4773613" y="4225926"/>
-          <a:ext cx="1317625" cy="928688"/>
+          <a:off x="4786390" y="4351761"/>
+          <a:ext cx="1318013" cy="926752"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8487,14 +8477,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>122665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>592138</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>131764</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8503,8 +8493,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4767263" y="2362201"/>
-          <a:ext cx="1317625" cy="928688"/>
+          <a:off x="4780040" y="2922086"/>
+          <a:ext cx="1318013" cy="926752"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8570,6 +8560,505 @@
               </a:solidFill>
             </a:rPr>
             <a:t>縮小した画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>423784</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138034</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1260125" y="2417840"/>
+          <a:ext cx="492513" cy="277039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393622</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114222</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133196</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1229963" y="4019318"/>
+          <a:ext cx="498863" cy="307201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546022</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990764" y="2592077"/>
+          <a:ext cx="1726386" cy="245676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１セメスター</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>↓</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>534910</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>296785</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38333</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2149514" y="2956429"/>
+          <a:ext cx="1318399" cy="926752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>時間割の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>縮小した画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23232</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104543</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>116159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="650488" y="1335823"/>
+          <a:ext cx="6992744" cy="360092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>学科専用闇キャンパスポータルへようこそ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111078</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>20362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>250469</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>43594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3282206" y="5433350"/>
+          <a:ext cx="1695915" cy="371707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トップページ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8647,14 +9136,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>217115</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>159685</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>894137</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8663,8 +9152,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1820490" y="1572560"/>
-          <a:ext cx="4566397" cy="340378"/>
+          <a:off x="1860178" y="2469492"/>
+          <a:ext cx="4606084" cy="324503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8727,15 +9216,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>468313</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9805</xdr:rowOff>
+      <xdr:colOff>139212</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>116961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402981</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>77041</xdr:rowOff>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8744,8 +9233,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2849563" y="1946555"/>
-          <a:ext cx="2436812" cy="241861"/>
+          <a:off x="2559683" y="1820255"/>
+          <a:ext cx="1832592" cy="230421"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8797,8 +9286,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>277814</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -8813,8 +9302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2659064" y="2444750"/>
-          <a:ext cx="2921000" cy="3333750"/>
+          <a:off x="2706689" y="3059906"/>
+          <a:ext cx="2952750" cy="2464594"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9115,15 +9604,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>17648</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5510</xdr:rowOff>
+      <xdr:colOff>14655</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>112666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
+      <xdr:colOff>139212</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>72745</xdr:rowOff>
+      <xdr:rowOff>13214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9132,8 +9621,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="636773" y="1942260"/>
-          <a:ext cx="2196915" cy="241860"/>
+          <a:off x="652097" y="1819839"/>
+          <a:ext cx="1905000" cy="237587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9183,16 +9672,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7097</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402981</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>976313</xdr:colOff>
+      <xdr:colOff>586154</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>74332</xdr:rowOff>
+      <xdr:rowOff>14801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9201,8 +9690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5310188" y="1943847"/>
-          <a:ext cx="1158875" cy="241860"/>
+          <a:off x="4388827" y="1821426"/>
+          <a:ext cx="1751135" cy="237587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9253,15 +9742,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>8684</xdr:rowOff>
+      <xdr:colOff>578828</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>115840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
+      <xdr:colOff>102577</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>75919</xdr:rowOff>
+      <xdr:rowOff>16388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9270,8 +9759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6492875" y="1945434"/>
-          <a:ext cx="1112837" cy="241860"/>
+          <a:off x="6132636" y="1823013"/>
+          <a:ext cx="1567960" cy="237587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9323,14 +9812,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>515938</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154779</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9339,8 +9828,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6135688" y="2841625"/>
-          <a:ext cx="1127125" cy="365125"/>
+          <a:off x="6215063" y="3163092"/>
+          <a:ext cx="1135063" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9405,14 +9894,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76992</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9421,8 +9910,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6153150" y="4327525"/>
-          <a:ext cx="1127125" cy="365125"/>
+          <a:off x="6232525" y="4585492"/>
+          <a:ext cx="1135063" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9479,14 +9968,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>646113</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>519113</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106362</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>46829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9495,8 +9984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6138863" y="3598862"/>
-          <a:ext cx="1127125" cy="365125"/>
+          <a:off x="6218238" y="3888579"/>
+          <a:ext cx="1135063" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9544,6 +10033,78 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>102577</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649348" y="1477291"/>
+          <a:ext cx="7051248" cy="363755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>学科専用闇キャンパスポータルへようこそ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10617,7 +11178,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="85" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11384,8 +11945,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AG27" sqref="AG27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13033,11 +13594,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="72">
         <v>3</v>
       </c>
@@ -13046,24 +13607,24 @@
       <c r="H6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
       <c r="L6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
       <c r="E7" s="72" t="s">
         <v>38</v>
       </c>
@@ -13072,15 +13633,15 @@
       <c r="H7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -13683,17 +14244,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13878,10 +14439,10 @@
       <c r="D8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="110"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="35" t="s">
         <v>49</v>
       </c>
@@ -13891,11 +14452,11 @@
       <c r="I8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="110" t="s">
+      <c r="J8" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -14533,25 +15094,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -14568,12 +15116,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14585,6 +15146,996 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
+        <f>表紙_外部!D10</f>
+        <v>（ＰＭ学科専用闇キャンパスポータルサイト）</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="100"/>
+      <c r="G7" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="100"/>
+      <c r="I7" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="44"/>
+    </row>
+    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="22">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="98"/>
+      <c r="G8" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="98"/>
+      <c r="I8" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="22">
+        <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="98"/>
+      <c r="G9" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="98"/>
+      <c r="I9" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="98"/>
+      <c r="G10" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="98"/>
+      <c r="I10" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="98"/>
+      <c r="G11" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="98"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="98"/>
+      <c r="G12" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="98"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="98"/>
+      <c r="G13" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="98"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="98"/>
+      <c r="G14" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="98"/>
+      <c r="I14" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="98"/>
+      <c r="G15" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="98"/>
+      <c r="I15" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="98"/>
+      <c r="G16" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="98"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="D7:O22">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="3" showButton="0">
+      <filters blank="1">
+        <filter val="ログイン失敗表示"/>
+        <filter val="ログイン処理"/>
+        <filter val="入力情報送信"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="51">
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
+      <formula1>"入力,出力,処理,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
+      <formula1>"低,中,高,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
+      <formula1>"小,中,大"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -15394,996 +16945,6 @@
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
-        <f>表紙_外部!D10</f>
-        <v>（ＰＭ学科専用闇キャンパスポータルサイト）</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="P1" s="19">
-        <v>42916</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="101" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="22">
-        <f>ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="22">
-        <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
-        <v>2</v>
-      </c>
-      <c r="E9" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="98" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="98" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="100"/>
-      <c r="G11" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E12" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="22">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E14" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="22">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E15" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="98" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="22">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="22">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="22">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="22">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="22">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="D7:O22">
-    <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="3" showButton="0">
-      <filters blank="1">
-        <filter val="ログイン失敗表示"/>
-        <filter val="ログイン処理"/>
-        <filter val="入力情報送信"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5" showButton="0"/>
-    <filterColumn colId="6" showButton="0"/>
-    <filterColumn colId="7" showButton="0"/>
-  </autoFilter>
-  <mergeCells count="51">
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
-      <formula1>"入力,出力,処理,その他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
-      <formula1>"低,中,高,その他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
-      <formula1>"小,中,大"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16535,21 +17096,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="101" t="s">
+      <c r="D7" s="104"/>
+      <c r="E7" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="110" t="s">
+      <c r="F7" s="100"/>
+      <c r="G7" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>46</v>
@@ -16561,21 +17122,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105" t="s">
+      <c r="D8" s="106"/>
+      <c r="E8" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107" t="s">
+      <c r="F8" s="108"/>
+      <c r="G8" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16585,21 +17146,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105" t="s">
+      <c r="D9" s="106"/>
+      <c r="E9" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="105" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="106"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16609,21 +17170,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105" t="s">
+      <c r="D10" s="106"/>
+      <c r="E10" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107" t="s">
+      <c r="F10" s="108"/>
+      <c r="G10" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -16633,21 +17194,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="D11" s="106"/>
+      <c r="E11" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107" t="s">
+      <c r="F11" s="108"/>
+      <c r="G11" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -16657,21 +17218,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105" t="s">
+      <c r="D12" s="106"/>
+      <c r="E12" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107" t="s">
+      <c r="F12" s="108"/>
+      <c r="G12" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -16681,21 +17242,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105" t="s">
+      <c r="D13" s="106"/>
+      <c r="E13" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107" t="s">
+      <c r="F13" s="108"/>
+      <c r="G13" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16705,21 +17266,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105" t="s">
+      <c r="D14" s="106"/>
+      <c r="E14" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107" t="s">
+      <c r="F14" s="108"/>
+      <c r="G14" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -16729,15 +17290,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>51</v>
@@ -16749,15 +17310,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -17204,30 +17765,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:K16"/>
@@ -17237,6 +17774,30 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:K15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18793,8 +19354,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18811,13 +19372,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="88"/>
       <c r="B1" s="89"/>
       <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
-        <v>145</v>
+      <c r="D1" s="91" t="str">
+        <f>表紙_外部!D10</f>
+        <v>（ＰＭ学科専用闇キャンパスポータルサイト）</v>
       </c>
       <c r="E1" s="92"/>
       <c r="F1" s="93"/>
@@ -18834,15 +19394,17 @@
         <v>2</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="N1" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="P1" s="19"/>
+        <v>155</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42916</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -18866,7 +19428,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>33</v>
@@ -18926,10 +19488,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -19560,8 +20122,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="85" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19578,12 +20140,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88"/>
+      <c r="A1" s="88" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="89"/>
       <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
-        <f>表紙_外部!D10</f>
-        <v>（ＰＭ学科専用闇キャンパスポータルサイト）</v>
+      <c r="D1" s="91" t="s">
+        <v>145</v>
       </c>
       <c r="E1" s="92"/>
       <c r="F1" s="93"/>
@@ -19600,13 +20163,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="N1" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="P1" s="19">
         <v>42916</v>
@@ -19634,7 +20197,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>33</v>
@@ -19694,10 +20257,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
